--- a/Outputs/CYME_Extract_4Bus.xlsx
+++ b/Outputs/CYME_Extract_4Bus.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unbcloud-my.sharepoint.com/personal/ebelliv1_unb_ca/Documents/Smart Grid/Github/CYME-EXTRACT/Outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_9E15BF192C566DEC7651C353929FEEEBAACC6D09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Shunt" sheetId="8" r:id="rId8"/>
     <sheet name="Switch" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="253">
   <si>
     <t>Excel file version</t>
   </si>
@@ -180,21 +186,12 @@
     <t>107_c</t>
   </si>
   <si>
-    <t>112_a</t>
+    <t>2_a</t>
   </si>
   <si>
     <t>PQ</t>
   </si>
   <si>
-    <t>112_b</t>
-  </si>
-  <si>
-    <t>112_c</t>
-  </si>
-  <si>
-    <t>2_a</t>
-  </si>
-  <si>
     <t>2_b</t>
   </si>
   <si>
@@ -432,6 +429,12 @@
     <t>Q3 (kVAr)</t>
   </si>
   <si>
+    <t>LD_112</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
     <t>End of Three-Phase ZIP Load</t>
   </si>
   <si>
@@ -561,10 +564,10 @@
     <t>b33 (uS/length_unit)</t>
   </si>
   <si>
+    <t>LN_3_4</t>
+  </si>
+  <si>
     <t>LN_107_2</t>
-  </si>
-  <si>
-    <t>LN_3_4</t>
   </si>
   <si>
     <t>End of Three-Phase Line with Full Data</t>
@@ -789,15 +792,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,34 +874,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -937,7 +949,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -971,6 +983,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1005,9 +1018,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1180,18 +1194,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1207,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1215,7 +1229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1229,19 +1243,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="201" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1310,7 +1324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1402,20 +1416,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1435,7 +1448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1455,7 +1468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1475,7 +1488,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1495,7 +1508,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1515,7 +1528,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1535,7 +1548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1555,7 +1568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1575,7 +1588,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1595,7 +1608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1615,7 +1628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1635,7 +1648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1655,7 +1668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1672,66 +1685,6 @@
         <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="3">
-        <v>7199.558</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7199.558</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7199.558</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7199.558</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-120</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7199.558</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7199.558</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1741,12 +1694,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="4" width="14.7109375" customWidth="1"/>
@@ -1756,179 +1709,185 @@
     <col min="9" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="C16" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+      <c r="D20" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>90</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
@@ -1952,94 +1911,100 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
+      <c r="I25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Voltage Source'!A12:F13" display="PositiveSeqVsource"/>
-    <hyperlink ref="A3" location="'Voltage Source'!A16:F17" display="SinglePhaseVsource"/>
-    <hyperlink ref="A4" location="'Voltage Source'!A20:H22" display="ThreePhaseShortCircuitVsource"/>
-    <hyperlink ref="A5" location="'Voltage Source'!A25:J26" display="ThreePhaseSequentialVsource"/>
-    <hyperlink ref="E11" location="'Voltage Source'!A1" display="Go to Type List"/>
-    <hyperlink ref="E15" location="'Voltage Source'!A1" display="Go to Type List"/>
-    <hyperlink ref="E19" location="'Voltage Source'!A1" display="Go to Type List"/>
-    <hyperlink ref="E24" location="'Voltage Source'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Voltage Source'!A12:F13" display="PositiveSeqVsource" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" location="'Voltage Source'!A16:F17" display="SinglePhaseVsource" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A4" location="'Voltage Source'!A20:H22" display="ThreePhaseShortCircuitVsource" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A5" location="'Voltage Source'!A25:J26" display="ThreePhaseSequentialVsource" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E11" location="'Voltage Source'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E15" location="'Voltage Source'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="E19" location="'Voltage Source'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="E24" location="'Voltage Source'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -2051,394 +2016,459 @@
     <col min="13" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
+      <c r="D24" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="L24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" t="s">
+      <c r="M28" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="1" t="s">
+      <c r="N28" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="O28" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="13"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="G32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="H32" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="I32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="J32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q32" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" t="s">
+      <c r="R32" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q32" s="7" t="s">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4.16</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E33" t="s">
         <v>134</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1275</v>
+      </c>
+      <c r="N33" s="3">
+        <v>790.17403146395543</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P33" s="3">
+        <v>871.77978870813456</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>2375</v>
+      </c>
+      <c r="R33" s="3">
+        <v>780.62474979980016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>136</v>
-      </c>
+      <c r="B34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Load'!A12:E13" display="PositiveSeqZload"/>
-    <hyperlink ref="B2" location="'Load'!A32:R33" display="ThreePhaseZIPLoad"/>
-    <hyperlink ref="A3" location="'Load'!A16:E17" display="PositiveSeqPload"/>
-    <hyperlink ref="A4" location="'Load'!A20:E21" display="PositiveSeqIload"/>
-    <hyperlink ref="A5" location="'Load'!A24:L25" display="SinglePhaseZIPLoad"/>
-    <hyperlink ref="A6" location="'Load'!A28:O29" display="TwoPhaseZIPLoad"/>
-    <hyperlink ref="C11" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C15" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C19" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C23" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C27" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C31" location="'Load'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Load'!A12:E13" display="PositiveSeqZload" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B2" location="'Load'!A32:R34" display="ThreePhaseZIPLoad" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A3" location="'Load'!A16:E17" display="PositiveSeqPload" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A4" location="'Load'!A20:E21" display="PositiveSeqIload" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A5" location="'Load'!A24:L25" display="SinglePhaseZIPLoad" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A6" location="'Load'!A28:O29" display="TwoPhaseZIPLoad" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C11" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C15" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C19" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C23" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C27" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C31" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2447,576 +2477,584 @@
     <col min="9" max="28" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" t="s">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="F20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="13"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="I24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="M24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="V24" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="W24" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="X24" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="U24" s="7" t="s">
+      <c r="Y24" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="V24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="W24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y24" s="7" t="s">
+      <c r="Z24" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="Z24" s="7" t="s">
+      <c r="AA24" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AA24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" t="s">
-        <v>179</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="8">
-        <v>0.3787878786432</v>
+      <c r="C25" s="6">
+        <v>0.47348484830400001</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="9">
-        <v>0</v>
-      </c>
-      <c r="V25" s="9">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9">
-        <v>0</v>
-      </c>
-      <c r="X25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="9">
+        <v>61</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7">
         <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="8">
-        <v>0.473484848304</v>
+      <c r="C26" s="6">
+        <v>0.37878787864320002</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-      <c r="P26" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0</v>
-      </c>
-      <c r="S26" s="9">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9">
-        <v>0</v>
-      </c>
-      <c r="U26" s="9">
-        <v>0</v>
-      </c>
-      <c r="V26" s="9">
-        <v>0</v>
-      </c>
-      <c r="W26" s="9">
-        <v>0</v>
-      </c>
-      <c r="X26" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="9">
+        <v>55</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
+      <c r="U26" s="7">
+        <v>0</v>
+      </c>
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+      <c r="X26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7">
         <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
-      <c r="A27" t="s">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="13"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="N30" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="O30" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31" t="s">
-        <v>189</v>
-      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Line'!A12:G13" display="PositiveSeqLine"/>
-    <hyperlink ref="A3" location="'Line'!A16:H17" display="SinglePhaseLine"/>
-    <hyperlink ref="A4" location="'Line'!A20:P21" display="TwoPhaseLine"/>
-    <hyperlink ref="A5" location="'Line'!A24:AA27" display="ThreePhaseLineFullData"/>
-    <hyperlink ref="A6" location="'Line'!A30:O31" display="ThreePhaseLineSequentialData"/>
-    <hyperlink ref="C11" location="'Line'!A1" display="Go to Type List"/>
-    <hyperlink ref="C15" location="'Line'!A1" display="Go to Type List"/>
-    <hyperlink ref="C19" location="'Line'!A1" display="Go to Type List"/>
-    <hyperlink ref="C23" location="'Line'!A1" display="Go to Type List"/>
-    <hyperlink ref="C29" location="'Line'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Line'!A12:G13" display="PositiveSeqLine" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A3" location="'Line'!A16:H17" display="SinglePhaseLine" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A4" location="'Line'!A20:P21" display="TwoPhaseLine" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A5" location="'Line'!A24:AA27" display="ThreePhaseLineFullData" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A6" location="'Line'!A30:O31" display="ThreePhaseLineSequentialData" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C11" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C15" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C19" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C23" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C29" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -3037,281 +3075,285 @@
     <col min="29" max="30" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="6" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="V20" s="7" t="s">
+      <c r="X20" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="W20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="X20" s="7" t="s">
+      <c r="Y20" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="Y20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" t="s">
-        <v>226</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -3320,13 +3362,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2">
         <v>12.47</v>
@@ -3335,16 +3377,16 @@
         <v>6000</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M21" s="2">
         <v>4.16</v>
@@ -3353,7 +3395,7 @@
         <v>6000</v>
       </c>
       <c r="O21" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -3376,443 +3418,457 @@
       <c r="V21" s="3">
         <v>10</v>
       </c>
-      <c r="W21" s="10">
-        <v>0.05997</v>
-      </c>
-      <c r="X21" s="11">
-        <v>0.00499773</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>0.00499773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" t="s">
+      <c r="W21" s="8">
+        <v>5.9970000000000002E-2</v>
+      </c>
+      <c r="X21" s="9">
+        <v>4.9977299999999997E-3</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>4.9977299999999997E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="W25" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="W25" s="7" t="s">
+      <c r="X25" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="X25" s="7" t="s">
+      <c r="Y25" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="Y25" s="7" t="s">
+      <c r="Z25" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z25" s="7" t="s">
+      <c r="AA25" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" t="s">
-        <v>235</v>
-      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Transformer'!A12:K13" display="PositiveSeq2wXF"/>
-    <hyperlink ref="A3" location="'Transformer'!A16:S17" display="PositiveSeq3wXF"/>
-    <hyperlink ref="A4" location="'Transformer'!A20:Y22" display="Multiphase2wXF"/>
-    <hyperlink ref="A5" location="'Transformer'!A25:AA26" display="Multiphase2wXFMutual"/>
-    <hyperlink ref="D11" location="'Transformer'!A1" display="Go to Type List"/>
-    <hyperlink ref="D15" location="'Transformer'!A1" display="Go to Type List"/>
-    <hyperlink ref="D19" location="'Transformer'!A1" display="Go to Type List"/>
-    <hyperlink ref="D24" location="'Transformer'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Transformer'!A12:K13" display="PositiveSeq2wXF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A3" location="'Transformer'!A16:S17" display="PositiveSeq3wXF" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A4" location="'Transformer'!A20:Y22" display="Multiphase2wXF" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A5" location="'Transformer'!A25:AA26" display="Multiphase2wXFMutual" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="D11" location="'Transformer'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="D15" location="'Transformer'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="D19" location="'Transformer'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="D24" location="'Transformer'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="N24" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>251</v>
-      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Shunt'!A12:E13" display="PositiveSeqShunt"/>
-    <hyperlink ref="A3" location="'Shunt'!A16:F17" display="SinglePhaseShunt"/>
-    <hyperlink ref="A4" location="'Shunt'!A20:J21" display="TwoPhaseShunt"/>
-    <hyperlink ref="A5" location="'Shunt'!A24:N25" display="ThreePhaseShunt"/>
-    <hyperlink ref="C11" location="'Shunt'!A1" display="Go to Type List"/>
-    <hyperlink ref="C15" location="'Shunt'!A1" display="Go to Type List"/>
-    <hyperlink ref="C19" location="'Shunt'!A1" display="Go to Type List"/>
-    <hyperlink ref="C23" location="'Shunt'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Shunt'!A12:E13" display="PositiveSeqShunt" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A3" location="'Shunt'!A16:F17" display="SinglePhaseShunt" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A4" location="'Shunt'!A20:J21" display="TwoPhaseShunt" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="A5" location="'Shunt'!A24:N25" display="ThreePhaseShunt" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="C11" location="'Shunt'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C15" location="'Shunt'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="C19" location="'Shunt'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="C23" location="'Shunt'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
